--- a/ESTRUCTURA DEL PROYECTO/2) Planning/7. Planning_20190405.xlsx
+++ b/ESTRUCTURA DEL PROYECTO/2) Planning/7. Planning_20190405.xlsx
@@ -1,43 +1,298 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumnos\Documents\GitHub\Proyecto_Integrador\ESTRUCTURA DEL PROYECTO\2) Planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="420" yWindow="5040" windowWidth="9240" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Task 3</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>Task 6</t>
+  </si>
+  <si>
+    <t>Task 7</t>
+  </si>
+  <si>
+    <t>Task 8</t>
+  </si>
+  <si>
+    <t>Task 9</t>
+  </si>
+  <si>
+    <t>Task 10</t>
+  </si>
+  <si>
+    <t>Task 11</t>
+  </si>
+  <si>
+    <t>Task 12</t>
+  </si>
+  <si>
+    <t>Task 13</t>
+  </si>
+  <si>
+    <t>Task 14</t>
+  </si>
+  <si>
+    <t>Task 15</t>
+  </si>
+  <si>
+    <t>Task 16</t>
+  </si>
+  <si>
+    <t>Task 17</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>TASK NAME</t>
+  </si>
+  <si>
+    <t>ASSIGNED TO</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t>% DONE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>SPRINT/MILESTONE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>PROJECT PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery of complete proyect </t>
+  </si>
+  <si>
+    <t>Task 18</t>
+  </si>
+  <si>
+    <t>Task 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyect planning </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Task type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define communications system and diplay configuration. </t>
+  </si>
+  <si>
+    <t>SW-Ports and pin configuration for timers and PWM.</t>
+  </si>
+  <si>
+    <t>Proyecto Integrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyect planing evaluation, 
+Create Software Development Plan,
+Software Requirements Analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project planning,
+FMEA,
+Gantt-chart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality Documents
+Project Evaluation Format </t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Verification Plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF004259"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri Bold"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF72A93C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004259"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF56A8C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90CEDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,11 +300,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -57,6 +381,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF56A8C3"/>
+      <color rgb="FF004259"/>
+      <color rgb="FF90CEDD"/>
+      <color rgb="FFCCCCCC"/>
+      <color rgb="FFEF7726"/>
+      <color rgb="FFC7E0E8"/>
+      <color rgb="FFC1272D"/>
+      <color rgb="FF72A93C"/>
+      <color rgb="FFFFFFDD"/>
+      <color rgb="FF577E2F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,8 +406,1295 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DUE DATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43722</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43736</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43743</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43750</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9AED-451E-85E8-79C94647ABA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="396668591"/>
+        <c:axId val="396664015"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DURATION</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>Task 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Task 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Task 3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Task 4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Task 5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Task 6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Task 7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Task 8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Task 9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Task 10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Task 11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Task 12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Task 13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Task 14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Task 15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Task 16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Task 17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>Task 18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>Task 19</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$6:$F$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-9AED-451E-85E8-79C94647ABA1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>START DATE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$6:$D$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m/d/yyyy</c:formatCode>
+                      <c:ptCount val="19"/>
+                      <c:pt idx="0">
+                        <c:v>43637</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43644</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43651</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43658</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43665</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43672</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43679</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43686</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43693</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43700</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43707</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43714</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43721</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43728</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43735</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43742</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43749</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>43756</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>43763</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-9AED-451E-85E8-79C94647ABA1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="396668591"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396664015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="396664015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396668591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>770657</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>658090</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +1710,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +1722,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +1769,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +1821,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -331,12 +1990,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="17" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+    </row>
+    <row r="2" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+    </row>
+    <row r="4" spans="1:24" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+    </row>
+    <row r="5" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3">
+        <v>43637</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43638</v>
+      </c>
+      <c r="F6" s="11">
+        <f>(E6-D6)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3">
+        <v>43644</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43645</v>
+      </c>
+      <c r="F7" s="11">
+        <f>(E7-D7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3">
+        <v>43651</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43652</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" ref="F8:F24" si="0">(E8-D8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3">
+        <v>43658</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43659</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3">
+        <v>43665</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43666</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>43672</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43673</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="13">
+        <v>43679</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43680</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>43686</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43687</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>43693</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43694</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43701</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <v>43707</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43708</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>43714</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43715</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
+        <v>43721</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43722</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <v>43728</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43729</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <v>43735</v>
+      </c>
+      <c r="E20" s="3">
+        <v>43736</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>80</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="27.75" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3">
+        <v>43742</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43743</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3">
+        <v>43749</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43750</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>85</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3">
+        <v>43756</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43757</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>90</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20">
+        <v>43763</v>
+      </c>
+      <c r="E24" s="20">
+        <v>43764</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>100</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:X4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ESTRUCTURA DEL PROYECTO/2) Planning/7. Planning_20190405.xlsx
+++ b/ESTRUCTURA DEL PROYECTO/2) Planning/7. Planning_20190405.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumnos\Documents\GitHub\Proyecto_Integrador\ESTRUCTURA DEL PROYECTO\2) Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Documents\GitHub\Proyecto_Integrador\ESTRUCTURA DEL PROYECTO\2) Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD530DC9-63ED-4BD0-9446-5714D5EE7130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="5040" windowWidth="9240" windowHeight="5880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Task 1</t>
   </si>
@@ -171,19 +172,31 @@
 Project Evaluation Format </t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t xml:space="preserve">Software Verification Plan </t>
   </si>
   <si>
     <t xml:space="preserve">Software Development </t>
+  </si>
+  <si>
+    <t>Task 20</t>
+  </si>
+  <si>
+    <t>Task 21</t>
+  </si>
+  <si>
+    <t>Unit test Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Throughput and Flash and RAM measurement</t>
+  </si>
+  <si>
+    <t>Peer review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -332,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -375,6 +388,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +423,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -421,7 +435,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -522,7 +535,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1040,7 +1052,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1989,17 +2000,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -2017,106 +2028,106 @@
         <v>30</v>
       </c>
       <c r="B1" s="12"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
     </row>
     <row r="2" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
     </row>
     <row r="4" spans="1:24" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2410,7 +2421,7 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="9" t="s">
@@ -2435,7 +2446,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="9" t="s">
@@ -2460,7 +2471,7 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="9" t="s">
@@ -2485,7 +2496,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="9" t="s">
@@ -2512,7 +2523,7 @@
         <v>80</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="10" t="s">
@@ -2564,7 +2575,7 @@
         <v>85</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="10" t="s">
@@ -2591,7 +2602,7 @@
         <v>90</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="10" t="s">
@@ -2618,10 +2629,64 @@
         <v>100</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20">
+        <v>43763</v>
+      </c>
+      <c r="E25" s="20">
+        <v>43764</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" ref="F25:F26" si="1">(E25-D25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>100</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="23" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20">
+        <v>43769</v>
+      </c>
+      <c r="E26" s="20">
+        <v>43769</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>100</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="10" t="s">
         <v>20</v>
       </c>
     </row>
